--- a/biology/Botanique/Coccomyxa/Coccomyxa.xlsx
+++ b/biology/Botanique/Coccomyxa/Coccomyxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccomyxa est un genre d’algues vertes de la famille des Coccomyxaceae. 
 Les cellules du ginkgo contiennent une algue endosymbiotique du genre Coccomyxa. À ce jour, ce type de symbiose, entre une microalgue et une plante, est unique. 
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 novembre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 novembre 2017) :
 Coccomyxa actinabiotis Rivasseau, Farhi &amp; Couté
 Coccomyxa arvernensis Jaag
 Coccomyxa astericola Rosenvinge
@@ -548,7 +562,7 @@
 Coccomyxa thallosa Chodat
 Coccomyxa vinatzeri T.Darienko &amp; T.Pröschold
 Coccomyxa viridis Chodat
-Selon BioLib                    (2 novembre 2017)[2] :
+Selon BioLib                    (2 novembre 2017) :
 Coccomyxa arvernensis Jaag
 Coccomyxa astericola Rosenvinge
 Coccomyxa brevis (Vischer) G. Gärtner &amp; A. Schragl
@@ -570,9 +584,9 @@
 Coccomyxa subellipsoida E. Acton
 Coccomyxa subglobosa Pascher
 Coccomyxa viridis Chodat
-Selon Catalogue of Life                                  (2 novembre 2017)[3] :
+Selon Catalogue of Life                                  (2 novembre 2017) :
 Coccomyxa morovi Léger &amp; Hesse, 1907
-Selon ITIS      (2 novembre 2017)[4] :
+Selon ITIS      (2 novembre 2017) :
 Coccomyxa dispar W. Schmidle, 1901
 Coccomyxa minor Skuja
 Coccomyxa morovi Leger &amp; Hesse
